--- a/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>197355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176307</v>
+        <v>174959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220820</v>
+        <v>220774</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3445518727198331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3078042179521251</v>
+        <v>0.305452200671549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3855172722962927</v>
+        <v>0.3854378143891004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>376</v>
@@ -762,19 +762,19 @@
         <v>230861</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209835</v>
+        <v>212211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250996</v>
+        <v>251540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2832595520872994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2574611208692699</v>
+        <v>0.2603756256752235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3079643424155716</v>
+        <v>0.3086320772987243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>599</v>
@@ -783,19 +783,19 @@
         <v>428217</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>396325</v>
+        <v>397840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458437</v>
+        <v>457237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3085567054477166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2855770346383067</v>
+        <v>0.2866685854390955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3303322757890936</v>
+        <v>0.3294678959321177</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>220703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199269</v>
+        <v>197801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243561</v>
+        <v>243720</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3853129397615774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3478934105949122</v>
+        <v>0.3453300282242179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4252193648192653</v>
+        <v>0.4254982485535002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>553</v>
@@ -833,19 +833,19 @@
         <v>319256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299351</v>
+        <v>297149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341929</v>
+        <v>340052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3917165291381892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3672938538698137</v>
+        <v>0.3645924916456988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4195361076482862</v>
+        <v>0.4172335785087604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>812</v>
@@ -854,19 +854,19 @@
         <v>539958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509296</v>
+        <v>508317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>571700</v>
+        <v>570328</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3890735784251874</v>
+        <v>0.3890735784251873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3669795015044282</v>
+        <v>0.3662737359589178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4119455153395239</v>
+        <v>0.410956574881733</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>123492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105571</v>
+        <v>106579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143544</v>
+        <v>142713</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.215597372392899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1843113606753309</v>
+        <v>0.186071317594574</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2506051154119437</v>
+        <v>0.2491546536579338</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>405</v>
@@ -904,19 +904,19 @@
         <v>221607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>203545</v>
+        <v>203424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>243772</v>
+        <v>240889</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2719045778780212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2497430484876753</v>
+        <v>0.249595219652071</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2991001921538952</v>
+        <v>0.2955627997647612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>565</v>
@@ -925,19 +925,19 @@
         <v>345098</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>317705</v>
+        <v>320486</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>370138</v>
+        <v>374258</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2486649289668069</v>
+        <v>0.2486649289668068</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2289264198507435</v>
+        <v>0.2309300016713277</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2667076687653449</v>
+        <v>0.2696760157121906</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>31239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22459</v>
+        <v>22192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42494</v>
+        <v>42182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05453781512569063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03920990302703611</v>
+        <v>0.03874351272973765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07418728890726058</v>
+        <v>0.07364296048652232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -975,19 +975,19 @@
         <v>43293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34672</v>
+        <v>34113</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54100</v>
+        <v>54252</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05311934089649006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04254108291813093</v>
+        <v>0.04185538356573752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06637879268406593</v>
+        <v>0.06656518341903728</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -996,19 +996,19 @@
         <v>74532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60545</v>
+        <v>62235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89061</v>
+        <v>88889</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05370478716028904</v>
+        <v>0.05370478716028905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04362654569193987</v>
+        <v>0.04484385708479204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06417421779588012</v>
+        <v>0.06405022389906972</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>1162310</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1109376</v>
+        <v>1111225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1217542</v>
+        <v>1216430</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5226969031155483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4988919631276898</v>
+        <v>0.4997235724306028</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5475347407797999</v>
+        <v>0.5470349589406928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1185</v>
@@ -1121,19 +1121,19 @@
         <v>996936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>955374</v>
+        <v>953944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1040753</v>
+        <v>1040657</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4597983351855066</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4406293358901603</v>
+        <v>0.4399698062521585</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4800069663825131</v>
+        <v>0.4799630383431481</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2111</v>
@@ -1142,19 +1142,19 @@
         <v>2159246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2080739</v>
+        <v>2088034</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2228422</v>
+        <v>2222699</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4916448703851207</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4737692792205384</v>
+        <v>0.4754302885456096</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5073957506876314</v>
+        <v>0.5060925487207072</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>780188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>730208</v>
+        <v>727612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>829569</v>
+        <v>830173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3508544684860128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3283781638714734</v>
+        <v>0.3272107010364755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3730614997121687</v>
+        <v>0.3733332578621991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1223</v>
@@ -1192,19 +1192,19 @@
         <v>851947</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>810006</v>
+        <v>806481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>891140</v>
+        <v>894641</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3929277346272723</v>
+        <v>0.3929277346272722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3735841107676073</v>
+        <v>0.3719580554268734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4110040240407675</v>
+        <v>0.4126187659206347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1977</v>
@@ -1213,19 +1213,19 @@
         <v>1632135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1567018</v>
+        <v>1568531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1705393</v>
+        <v>1695945</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3716253775907714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3567986529319084</v>
+        <v>0.3571433301103539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3883057832009681</v>
+        <v>0.3861546020067242</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>242938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215008</v>
+        <v>215278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>273495</v>
+        <v>276969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1092502978485071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09669023748985199</v>
+        <v>0.09681143894372572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1229919685138301</v>
+        <v>0.1245545208559772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>468</v>
@@ -1263,19 +1263,19 @@
         <v>294332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268153</v>
+        <v>264601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324389</v>
+        <v>323302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1357492733055662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1236750262542261</v>
+        <v>0.1220371035776762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1496120458170021</v>
+        <v>0.1491104864712006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -1284,19 +1284,19 @@
         <v>537270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>495785</v>
+        <v>496041</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>578489</v>
+        <v>576510</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1223324248395476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1128867421769004</v>
+        <v>0.1129450666463646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1317178128446952</v>
+        <v>0.1312671499288215</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>38244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26907</v>
+        <v>27526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54875</v>
+        <v>54650</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01719833054993171</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01210030033317862</v>
+        <v>0.01237868177477061</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02467747557743572</v>
+        <v>0.02457639171509512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1334,19 +1334,19 @@
         <v>24988</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17503</v>
+        <v>17557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33265</v>
+        <v>34281</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.011524656881655</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008072359220233107</v>
+        <v>0.008097662974010392</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01534227196162925</v>
+        <v>0.0158106683317052</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -1355,19 +1355,19 @@
         <v>63231</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49058</v>
+        <v>49500</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81688</v>
+        <v>81181</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01439732718456022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01117020487289127</v>
+        <v>0.01127075449891138</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01859983932870588</v>
+        <v>0.0184843674931695</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>358998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328382</v>
+        <v>329784</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388100</v>
+        <v>386725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5063416734744084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.463160059204539</v>
+        <v>0.4651376803691727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5473887599084978</v>
+        <v>0.5454494263931727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>441</v>
@@ -1480,19 +1480,19 @@
         <v>345767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322505</v>
+        <v>320943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367485</v>
+        <v>371045</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4709613633272686</v>
+        <v>0.4709613633272687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4392768463551721</v>
+        <v>0.4371493230615922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5005433745217149</v>
+        <v>0.5053918411748144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -1501,19 +1501,19 @@
         <v>704764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666126</v>
+        <v>668384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741711</v>
+        <v>740237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4883430026569722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4615696753955943</v>
+        <v>0.4631343292417662</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5139440331007635</v>
+        <v>0.5129227954808077</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>282631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>253884</v>
+        <v>256218</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>309903</v>
+        <v>312041</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3986319808488862</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3580860429369933</v>
+        <v>0.3613775434830527</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4370967211868704</v>
+        <v>0.4401130123855069</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>437</v>
@@ -1551,19 +1551,19 @@
         <v>299730</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>276116</v>
+        <v>277052</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>322164</v>
+        <v>325362</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4082555139543516</v>
+        <v>0.4082555139543517</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3760920720440615</v>
+        <v>0.3773672138434817</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4388128096074542</v>
+        <v>0.4431682085643426</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>727</v>
@@ -1572,19 +1572,19 @@
         <v>582361</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>543774</v>
+        <v>546887</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>618495</v>
+        <v>618089</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4035276644578095</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3767902913857172</v>
+        <v>0.3789470802561965</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4285656458744161</v>
+        <v>0.4282844893878138</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>58695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45314</v>
+        <v>45524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73486</v>
+        <v>75234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08278515326398367</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06391216089860077</v>
+        <v>0.06420897918230832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1036467732730594</v>
+        <v>0.1061123430406929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -1622,19 +1622,19 @@
         <v>73750</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60746</v>
+        <v>60013</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90981</v>
+        <v>91354</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1004538070610314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08274081627561196</v>
+        <v>0.08174245248728702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1239227112712181</v>
+        <v>0.1244311995979075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -1643,19 +1643,19 @@
         <v>132445</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111223</v>
+        <v>113147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153764</v>
+        <v>156528</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09177355054365013</v>
+        <v>0.09177355054365016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07706834994311668</v>
+        <v>0.07840126561197333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1065459125315711</v>
+        <v>0.1084607311151914</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3584</v>
+        <v>3405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19114</v>
+        <v>18282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0122411924127217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005054893083500959</v>
+        <v>0.004802886768686567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02695915005770436</v>
+        <v>0.025786189058214</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1693,19 +1693,19 @@
         <v>14925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8923</v>
+        <v>9431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23582</v>
+        <v>24998</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02032931565734838</v>
+        <v>0.02032931565734839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01215429974297639</v>
+        <v>0.01284610596240458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03212061653694744</v>
+        <v>0.0340494083881312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1714,19 +1714,19 @@
         <v>23604</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15647</v>
+        <v>15626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35905</v>
+        <v>35177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0163557823415683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01084237747330709</v>
+        <v>0.01082772528874428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02487929211167663</v>
+        <v>0.024374822419373</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1718663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1651885</v>
+        <v>1650556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1781071</v>
+        <v>1783214</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4902803476595022</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4712307327516619</v>
+        <v>0.4708514818302319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5080833171688599</v>
+        <v>0.5086946289181434</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2002</v>
@@ -1839,19 +1839,19 @@
         <v>1573564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1525317</v>
+        <v>1519727</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1631083</v>
+        <v>1630455</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4232978797285684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.410319308731262</v>
+        <v>0.4088155135951501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4387709005664642</v>
+        <v>0.438601875835768</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3469</v>
@@ -1860,19 +1860,19 @@
         <v>3292227</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3203178</v>
+        <v>3203379</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3383229</v>
+        <v>3379648</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4558064678482204</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4434777500385292</v>
+        <v>0.4435055961277249</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.468405625548771</v>
+        <v>0.467909912060421</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>1283522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1222074</v>
+        <v>1220631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1348874</v>
+        <v>1351698</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.366148224138177</v>
+        <v>0.3661482241381769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3486190513329495</v>
+        <v>0.3482075436588087</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3847912289578389</v>
+        <v>0.3855968495720341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2213</v>
@@ -1910,19 +1910,19 @@
         <v>1470932</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1412642</v>
+        <v>1417600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1520898</v>
+        <v>1523229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.395689367894196</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3800088974543053</v>
+        <v>0.3813425977672007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4091303828460989</v>
+        <v>0.4097576190483896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3516</v>
@@ -1931,19 +1931,19 @@
         <v>2754454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2663960</v>
+        <v>2676002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2833944</v>
+        <v>2841513</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3813521703466516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3688234082084593</v>
+        <v>0.3704905679225348</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3923575310327532</v>
+        <v>0.3934054732737687</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>425124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>387929</v>
+        <v>389925</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>462892</v>
+        <v>466398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1212744982558297</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1106640249731079</v>
+        <v>0.1112332382662988</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1320485554824572</v>
+        <v>0.1330486798812336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>978</v>
@@ -1981,19 +1981,19 @@
         <v>589689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>556429</v>
+        <v>552374</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>630878</v>
+        <v>625927</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1586298103263157</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1496825373032506</v>
+        <v>0.1485918756506851</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1697099936740007</v>
+        <v>0.1683780578223522</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1469</v>
@@ -2002,19 +2002,19 @@
         <v>1014813</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>965084</v>
+        <v>962744</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1070218</v>
+        <v>1068416</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1405001639921042</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1336151438767745</v>
+        <v>0.1332912773973109</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.148170980493219</v>
+        <v>0.1479214785367769</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>78161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61986</v>
+        <v>60479</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97896</v>
+        <v>97899</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02229692994649116</v>
+        <v>0.02229692994649115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0176826717813885</v>
+        <v>0.01725273779907514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02792667759680831</v>
+        <v>0.02792758539462847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>140</v>
@@ -2052,19 +2052,19 @@
         <v>83206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68743</v>
+        <v>70009</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98730</v>
+        <v>97508</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02238294205091988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01849236716928213</v>
+        <v>0.01883293988492851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02655896920579493</v>
+        <v>0.02623017837376318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>228</v>
@@ -2073,19 +2073,19 @@
         <v>161367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139193</v>
+        <v>138613</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>189804</v>
+        <v>186615</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02234119781302376</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01927120298428069</v>
+        <v>0.01919090387724492</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02627828914829012</v>
+        <v>0.02583669056267151</v>
       </c>
     </row>
     <row r="23">
